--- a/dados 01/Lista_participantes.xlsx
+++ b/dados 01/Lista_participantes.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisio\Desktop\Kufungula\Kufungula\DashboardPI\dados 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8AE984-9E16-42E3-B233-52887836463E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA444CC1-7DB4-4259-8B70-22311F84B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E778F05-CB12-477C-9B16-59BA3DB29358}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista de influentes presentes" sheetId="1" r:id="rId1"/>
+    <sheet name="Lista de presentes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
